--- a/resources/MultipleSheets.xlsx
+++ b/resources/MultipleSheets.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B4577DF-20DA-4A5A-BC55-CFA80D4FEE80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3756" yWindow="1752" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>First sheet</t>
   </si>
@@ -23,16 +24,37 @@
     <t>TODO, put some data here</t>
   </si>
   <si>
-    <t>Second sheet</t>
-  </si>
-  <si>
-    <t>TODO, also put some data here</t>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Employee 1</t>
+  </si>
+  <si>
+    <t>Employee 2</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Employee 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -82,9 +104,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -122,7 +144,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -157,6 +179,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -192,9 +231,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,21 +423,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -392,23 +448,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
